--- a/All.xlsx
+++ b/All.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{9B398E54-368B-496C-860D-7EAF5936D69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B438B0CB-E062-49B5-ADD6-73B9F0ED31DA}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{9B398E54-368B-496C-860D-7EAF5936D69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F8EB783-AE5A-4B8C-94C8-3E5A0B53FF31}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D10A3A99-A780-4F27-8288-8139F64149F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="20">
   <si>
     <t>Replicates</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>MP_PFOS_PFOA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -142,6 +151,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,14 +456,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02B3694-1FB0-4755-A6EB-F1DB2FAC058A}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -459,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>12</v>
@@ -485,13 +497,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -511,13 +523,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -537,13 +549,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -563,13 +575,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -589,13 +601,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -615,13 +627,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -641,13 +653,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -667,13 +679,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -693,13 +705,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -719,13 +731,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -745,13 +757,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -771,13 +783,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -797,13 +809,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -823,13 +835,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -849,13 +861,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -875,13 +887,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -901,13 +913,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -927,13 +939,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -953,13 +965,13 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -979,13 +991,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>8</v>
@@ -1005,13 +1017,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -1031,13 +1043,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -1057,13 +1069,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>8</v>
@@ -1083,13 +1095,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -1109,13 +1121,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>8</v>
@@ -1135,13 +1147,13 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -1161,13 +1173,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -1187,13 +1199,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -1207,13 +1219,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -1233,13 +1245,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -1259,13 +1271,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>9</v>
@@ -1285,13 +1297,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>10</v>
@@ -1311,13 +1323,13 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -1337,13 +1349,13 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>10</v>
@@ -1363,13 +1375,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>8</v>
@@ -1380,13 +1392,13 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>9</v>
@@ -1397,13 +1409,13 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -1412,13 +1424,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -1435,13 +1447,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>7</v>
@@ -1461,13 +1473,13 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>8</v>
@@ -1487,13 +1499,13 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>8</v>
@@ -1513,13 +1525,13 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>9</v>
@@ -1539,13 +1551,13 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>8</v>
@@ -1565,13 +1577,13 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>8</v>
@@ -1582,13 +1594,13 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>8</v>
@@ -1608,13 +1620,13 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>8</v>
@@ -1634,13 +1646,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>8</v>
@@ -1660,13 +1672,13 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>7</v>
@@ -1686,13 +1698,13 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>8</v>
@@ -1712,13 +1724,13 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>8</v>
@@ -1738,13 +1750,13 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E52">
         <v>6</v>
@@ -1764,13 +1776,13 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E53">
         <v>6</v>
@@ -1790,13 +1802,13 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>8</v>
@@ -1816,13 +1828,13 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -1842,13 +1854,13 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>8</v>
@@ -1868,13 +1880,13 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>7</v>
@@ -1894,13 +1906,13 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>8</v>
@@ -1920,13 +1932,13 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>8</v>
@@ -1946,13 +1958,13 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <v>6</v>
@@ -1972,13 +1984,13 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -1998,13 +2010,13 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>8</v>
@@ -2024,13 +2036,13 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -2050,13 +2062,13 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>8</v>
@@ -2076,13 +2088,13 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>7</v>
@@ -2102,13 +2114,13 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>8</v>
@@ -2128,13 +2140,13 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>8</v>
@@ -2154,13 +2166,13 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -2180,13 +2192,13 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E69">
         <v>6</v>
@@ -2206,13 +2218,13 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E70">
         <v>8</v>
@@ -2232,13 +2244,13 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E71">
         <v>6</v>
@@ -2258,11 +2270,14 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
       </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
       <c r="E72">
         <v>8</v>
       </c>
@@ -2275,11 +2290,14 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
       </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
       <c r="E73">
         <v>8</v>
       </c>
@@ -2298,10 +2316,13 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
       </c>
       <c r="E74">
         <v>10</v>
@@ -2321,11 +2342,14 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
       </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
       <c r="E75">
         <v>9</v>
       </c>
@@ -2344,11 +2368,14 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
       </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
       <c r="E76">
         <v>9</v>
       </c>
@@ -2367,10 +2394,13 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
       </c>
       <c r="E77">
         <v>10</v>
@@ -2390,13 +2420,13 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>7</v>
@@ -2416,13 +2446,13 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E79">
         <v>7</v>
@@ -2442,13 +2472,13 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>8</v>
@@ -2468,13 +2498,13 @@
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>7</v>
@@ -2494,13 +2524,13 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <v>7</v>
@@ -2520,13 +2550,13 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E83">
         <v>8</v>
@@ -2546,13 +2576,13 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E84">
         <v>8</v>
@@ -2572,13 +2602,13 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E85">
         <v>8</v>
@@ -2598,13 +2628,13 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -2624,13 +2654,13 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>8</v>
@@ -2650,13 +2680,13 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E88">
         <v>8</v>
@@ -2676,13 +2706,13 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E89">
         <v>7</v>
@@ -2702,13 +2732,13 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E90">
         <v>8</v>
@@ -2728,13 +2758,13 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <v>10</v>
@@ -2754,13 +2784,13 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E92">
         <v>8</v>
@@ -2780,13 +2810,13 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E93">
         <v>8</v>
